--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\data-analysis\excel\expenses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4154F10E-22A0-41F9-8DEC-3B7FAA7D9E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB31065F-7A0E-42E0-8AA6-DA220502B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="330" windowWidth="21600" windowHeight="14895" xr2:uid="{99C947B6-496D-4FFE-A858-31CE699C7E9A}"/>
   </bookViews>
@@ -35,8 +35,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+  <si>
+    <t>Guitar budget</t>
+  </si>
+  <si>
+    <t>Beverage budget</t>
+  </si>
+  <si>
+    <t>Car budget</t>
+  </si>
+  <si>
+    <t>Hoodie Budget</t>
+  </si>
+  <si>
+    <t>Suits budget</t>
+  </si>
+  <si>
+    <t>Glasses budget</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Paul Reed Smith</t>
+  </si>
+  <si>
+    <t>Les Paul Epiphone</t>
+  </si>
+  <si>
+    <t>Fender Stratocaster</t>
+  </si>
+  <si>
+    <t>Marshall Amp</t>
+  </si>
+  <si>
+    <t>Austin East Ciders Blood Orange</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Chocolate milk</t>
+  </si>
+  <si>
+    <t>Orange Juice</t>
+  </si>
+  <si>
+    <t>Tesla Cybertruck</t>
+  </si>
+  <si>
+    <t>Honda Civic Sport</t>
+  </si>
+  <si>
+    <t>Iron Maiden Hoodie</t>
+  </si>
+  <si>
+    <t>Metallica Hoodie</t>
+  </si>
+  <si>
+    <t>Dark Souls Hoodie</t>
+  </si>
+  <si>
+    <t>Dapper Coat</t>
+  </si>
+  <si>
+    <t>Blue light blockers</t>
+  </si>
+  <si>
+    <t>Disclaimer: Fake AF</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +469,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD5CA58-DC20-4DC8-B5B9-4BCC99554AA0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42069</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>850</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>32000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(B5:B8)</f>
+        <v>8350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="C10:L10" si="0">SUM(D5:D8)</f>
+        <v>34.75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>74069</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>